--- a/dashboard_loader/health_edwait_uploader/health_edwait.xlsx
+++ b/dashboard_loader/health_edwait_uploader/health_edwait.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t xml:space="preserve">Waiting times for emergency hospital care</t>
   </si>
@@ -107,10 +107,16 @@
     <t xml:space="preserve">Notes</t>
   </si>
   <si>
-    <t xml:space="preserve">The scope of this indicator has been increased to include all public hospitals reporting to the Non-Admitted Patient Emergency Department Care National Minimum Data Set. Data for 2013–14 have been resupplied for the revised scope, but it is not possible to provide comparable data for the years prior to 2013–14. Please see SCRGSP (2016) for more information.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sourced from: AIHW National Non-admitted Patient Emergency Department Care Database.</t>
+    <t xml:space="preserve">The scope of this indicator has been increased to include all public hospitals reporting to the Non-Admitted Patient Emergency Department Care National Minimum Data Set. Data for 2013–14 have been resupplied for the revised scope, but it is not possible to provide comparable data for the years prior to 2013–14.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIHW (various years), Australian hospital statistics, Health Services Series</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIHW (various years), Emergency department care: Australian hospital statistics, Health services series.</t>
   </si>
 </sst>
 </file>
@@ -121,7 +127,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -145,18 +151,141 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -165,12 +294,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -188,7 +332,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -212,6 +356,54 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -222,56 +414,132 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="36" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="36" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="36" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="3" xfId="36" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="23">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -282,16 +550,16 @@
   </sheetPr>
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="7.71255060728745"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="83.3400809716599"/>
-    <col collapsed="false" hidden="false" max="11" min="3" style="1" width="6.85425101214575"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="1" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="83.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="3" style="1" width="6.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="1" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -455,17 +723,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="75.6275303643725"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="1" width="9.10526315789474"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="75.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="1" width="9.11"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -520,7 +788,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
@@ -528,10 +796,17 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10"/>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="B9" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="25.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/dashboard_loader/health_edwait_uploader/health_edwait.xlsx
+++ b/dashboard_loader/health_edwait_uploader/health_edwait.xlsx
@@ -95,7 +95,25 @@
     <t xml:space="preserve">Desc Body</t>
   </si>
   <si>
-    <t xml:space="preserve">Emergency department (ED) performance is based on the percentage of people who are seen within benchmark times for five triage categories—triage category 1 is for those with life threatening conditions to be seen "within seconds" and triage category 5 is for those with the least urgent conditions to be seen "within 120 minutes".</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Emergency department (ED) performance is based on the percentage of people who are seen within benchmark times for five triage categories—triage category 1 is for those with life threatening conditions to be seen "within seconds" and triage category 5 is for those with the least urgent conditions to be seen "within 120 minutes". </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Performance in triage categories 4 and 5 is likely to be affected by the availability of primary care, which is largely a Commonwealth Government responsibility.</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">The hospitals within scope of this indicator were expanded in 2013-14, so only the last three years of data are comparable (see notes). Nationally, in 2015-16, the proportion of ED presentations treated on time was 74.0 per cent—this has decreased from 75.4 per cent in 2013–14. </t>
@@ -127,7 +145,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -236,6 +254,19 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -409,7 +440,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -446,12 +477,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -556,7 +591,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="83.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="3" style="1" width="6.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="1" width="8.57"/>
@@ -726,7 +761,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -768,7 +803,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="59.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
         <v>23</v>
       </c>
@@ -792,7 +827,7 @@
       <c r="A8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="11" t="s">
         <v>28</v>
       </c>
     </row>
